--- a/Libro de palabras.xlsx
+++ b/Libro de palabras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karla\TT_ESCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B401C979-4BA7-49F2-9CF4-B0CDDB5D1B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D37BF-7544-4EF4-B08E-CC5D1166B35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B2624515-68DE-4A07-BA51-A13100A2079F}"/>
+    <workbookView xWindow="-7605" yWindow="5475" windowWidth="15375" windowHeight="7995" xr2:uid="{B2624515-68DE-4A07-BA51-A13100A2079F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Igualdad</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Grupos</t>
-  </si>
-  <si>
     <t>Identificar</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>su</t>
   </si>
   <si>
-    <t>autoridad</t>
-  </si>
-  <si>
     <t>sobre</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>mas</t>
   </si>
   <si>
-    <t>justa</t>
-  </si>
-  <si>
     <t>año</t>
   </si>
   <si>
@@ -269,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dignidad </t>
+  </si>
+  <si>
+    <t>justicia</t>
   </si>
 </sst>
 </file>
@@ -284,12 +278,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -304,9 +304,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -625,125 +631,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7042405E-0080-4065-9C3C-01E44C8BAEE2}">
   <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
+      <c r="A6" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
+      <c r="A7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
+      <c r="A8" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
+      <c r="A9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
+      <c r="A13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
+      <c r="A15" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
+      <c r="A16" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
+      <c r="A17" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
+      <c r="A18" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>77</v>
+      <c r="A19" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
+      <c r="A20" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -752,282 +756,276 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
+      <c r="A39" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>20</v>
+      <c r="A40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>55</v>
+      <c r="A43" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>36</v>
+      <c r="A44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
     </row>
